--- a/va_facility_data_2025-02-20/Palatka VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Palatka%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Palatka VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Palatka%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raf4687ed15fe4b38adad72136bca2e1f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R849d96df0aaa47c0a495c78bd795789c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb8a7a4e1940d44439c088ec8a6dd7265"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb1a8aa17047e482c951a9fb99098e26c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3633a53066d54cbeb09c831daf922053"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc9d0aabe8bbe491096bca33dc7a8b084"/>
   </x:sheets>
 </x:workbook>
 </file>
